--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemchinhsachcongty_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Xemchinhsachcongty_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69FD3FE-766E-4B8F-A66D-F47A3A33C40B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3BFD3B-98D3-4D40-9AE1-C28FA8A5E923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
   <si>
     <t>Author</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>28/04/2020</t>
   </si>
 </sst>
 </file>
@@ -1184,6 +1187,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,30 +1238,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1289,13 +1298,61 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,64 +1361,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1687,8 +1690,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1703,31 +1706,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1775,7 +1778,9 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
@@ -1787,7 +1792,9 @@
       <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>43953</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>55</v>
       </c>
@@ -1802,21 +1809,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1825,54 +1832,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="64"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1899,7 +1906,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1917,80 +1924,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="76"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="82"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2156,7 +2163,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2175,18 +2182,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="105"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2225,33 +2232,33 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90">
+      <c r="A5" s="93">
         <v>1</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="90" t="s">
         <v>90</v>
       </c>
       <c r="F5" s="47">
@@ -2264,16 +2271,16 @@
       <c r="I5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="97"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
@@ -2284,14 +2291,14 @@
       <c r="I6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="108"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:10" s="46" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="98"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
@@ -2302,22 +2309,22 @@
       <c r="I7" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="109"/>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90">
+      <c r="A8" s="93">
         <v>2</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="90" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="47">
@@ -2330,16 +2337,16 @@
       <c r="I8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="97"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="47">
         <v>2</v>
       </c>
@@ -2350,14 +2357,14 @@
       <c r="I9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="108"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="97"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="91"/>
       <c r="F10" s="47">
         <v>3</v>
       </c>
@@ -2368,14 +2375,14 @@
       <c r="I10" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="108"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="98"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="47">
         <v>4</v>
       </c>
@@ -2386,22 +2393,22 @@
       <c r="I11" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="109"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90">
+      <c r="A12" s="93">
         <v>2</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="90" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="47">
@@ -2414,16 +2421,16 @@
       <c r="I12" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="107" t="s">
+      <c r="J12" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="97"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="91"/>
       <c r="F13" s="47">
         <v>2</v>
       </c>
@@ -2434,14 +2441,14 @@
       <c r="I13" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="108"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="97"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="47">
         <v>3</v>
       </c>
@@ -2452,14 +2459,14 @@
       <c r="I14" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="108"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="92"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="47">
         <v>4</v>
       </c>
@@ -2470,22 +2477,22 @@
       <c r="I15" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="109"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90">
+      <c r="A16" s="93">
         <v>21</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="99" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="47">
@@ -2498,16 +2505,16 @@
       <c r="I16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="107" t="s">
+      <c r="J16" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="42">
         <v>2</v>
       </c>
@@ -2518,14 +2525,14 @@
       <c r="I17" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="108"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="41">
         <v>3</v>
       </c>
@@ -2536,14 +2543,14 @@
       <c r="I18" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="108"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="41">
         <v>4</v>
       </c>
@@ -2554,25 +2561,10 @@
       <c r="I19" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="109"/>
+      <c r="J19" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B8:B11"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:A11"/>
@@ -2584,6 +2576,21 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="E12:E15"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
